--- a/Cronograma de actividades, Laboratorio 3.xlsx
+++ b/Cronograma de actividades, Laboratorio 3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
   <si>
     <t>Cronograma de actividades</t>
   </si>
@@ -107,6 +107,9 @@
   </si>
   <si>
     <t>Vendedores</t>
+  </si>
+  <si>
+    <t>Encargados</t>
   </si>
 </sst>
 </file>
@@ -170,7 +173,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -303,9 +306,7 @@
       <top style="thick">
         <color indexed="64"/>
       </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -318,9 +319,7 @@
       <top style="thick">
         <color indexed="64"/>
       </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -333,6 +332,43 @@
       <top style="thick">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="thick">
         <color indexed="64"/>
       </bottom>
@@ -342,7 +378,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -362,6 +398,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -380,13 +417,22 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -395,23 +441,22 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -721,55 +766,66 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="G3" sqref="G3:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:10" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="18.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="26"/>
+    </row>
+    <row r="2" spans="1:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
-      <c r="C2" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="17"/>
+      <c r="C2" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="29"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="20"/>
-      <c r="C3" s="21" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="21" t="s">
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="23"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="20"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8"/>
       <c r="B4" s="3"/>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="24" t="s">
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="19"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="23"/>
     </row>
     <row r="5" spans="1:10" ht="18.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -778,18 +834,18 @@
       <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="25" t="s">
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="26"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="17"/>
     </row>
     <row r="6" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -798,18 +854,18 @@
       <c r="B6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="9" t="s">
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="11"/>
     </row>
     <row r="7" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -818,18 +874,18 @@
       <c r="B7" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="9" t="s">
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="11"/>
     </row>
     <row r="8" spans="1:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
@@ -838,16 +894,16 @@
       <c r="B8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="11"/>
     </row>
     <row r="9" spans="1:10" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
@@ -856,16 +912,16 @@
       <c r="B9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="15"/>
     </row>
     <row r="10" spans="1:10" ht="18.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -874,14 +930,14 @@
       <c r="B10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="11"/>
     </row>
     <row r="11" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
@@ -890,18 +946,18 @@
       <c r="B11" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="9" t="s">
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="11"/>
     </row>
     <row r="12" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -910,18 +966,18 @@
       <c r="B12" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="9" t="s">
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="11"/>
     </row>
     <row r="13" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -930,18 +986,18 @@
       <c r="B13" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="9" t="s">
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="11"/>
     </row>
     <row r="14" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -950,36 +1006,47 @@
       <c r="B14" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="9" t="s">
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="11"/>
     </row>
     <row r="15" spans="1:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B15" s="6"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="13"/>
     </row>
     <row r="16" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="27">
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C10:F10"/>
     <mergeCell ref="G13:J13"/>
     <mergeCell ref="G14:J14"/>
     <mergeCell ref="G15:J15"/>
@@ -994,18 +1061,8 @@
     <mergeCell ref="G10:J10"/>
     <mergeCell ref="G11:J11"/>
     <mergeCell ref="G12:J12"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C10:F10"/>
     <mergeCell ref="C11:F11"/>
     <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="C2:J2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
